--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0f3183a153e1589/DOUTORADO Poly Mtl/Projeto/CSL/CSL-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0f3183a153e1589/DOUTORADO Poly Mtl/Projeto/LineTracker/LineTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{AB337C3E-623C-4B0C-AB08-5D36E48ECAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C869C1B1-32C1-42E2-9093-583895331A61}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{AB337C3E-623C-4B0C-AB08-5D36E48ECAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFC6FC9D-541D-4E10-9FA0-694B0A2D7C8C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BDA4E191-839D-4ADA-92F7-5571D435E624}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDA4E191-839D-4ADA-92F7-5571D435E624}"/>
   </bookViews>
   <sheets>
     <sheet name="Precision" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>BGL</t>
   </si>
@@ -265,6 +265,42 @@
   </si>
   <si>
     <t>BerTopic (meu)</t>
+  </si>
+  <si>
+    <t>0.4600569444444475</t>
+  </si>
+  <si>
+    <t>0.7275583333333442</t>
+  </si>
+  <si>
+    <t>0.5422723727194173</t>
+  </si>
+  <si>
+    <t>0.049285714285714245</t>
+  </si>
+  <si>
+    <t>0.2875</t>
+  </si>
+  <si>
+    <t>0.07431168766750089</t>
+  </si>
+  <si>
+    <t>0.09899999999999738</t>
+  </si>
+  <si>
+    <t>0.3331666666666678</t>
+  </si>
+  <si>
+    <t>0.14761171896844758</t>
+  </si>
+  <si>
+    <t>0.09599999999999778</t>
+  </si>
+  <si>
+    <t>0.35433333333333505</t>
+  </si>
+  <si>
+    <t>0.1490641004223656</t>
   </si>
 </sst>
 </file>
@@ -644,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E42FE15-9420-48DC-9346-ADF5AB9E8356}">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,16 +721,16 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -799,6 +835,18 @@
       </c>
       <c r="C8" s="4" t="s">
         <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -820,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EB736C-80E1-4F9C-ADC3-88AA2B4FCEAB}">
   <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,10 +912,10 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F3" t="s">
@@ -919,7 +967,7 @@
       <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -942,7 +990,7 @@
       <c r="F6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -962,10 +1010,10 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -978,6 +1026,18 @@
       </c>
       <c r="C8" t="s">
         <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +1050,7 @@
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,10 +1091,10 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F3" t="s">
@@ -1145,6 +1205,18 @@
       </c>
       <c r="C8" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0f3183a153e1589/DOUTORADO Poly Mtl/Projeto/LineTracker/LineTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{AB337C3E-623C-4B0C-AB08-5D36E48ECAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFC6FC9D-541D-4E10-9FA0-694B0A2D7C8C}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{AB337C3E-623C-4B0C-AB08-5D36E48ECAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2332ABAF-47B8-407B-9783-61890B35AEE3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDA4E191-839D-4ADA-92F7-5571D435E624}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BDA4E191-839D-4ADA-92F7-5571D435E624}"/>
   </bookViews>
   <sheets>
     <sheet name="Precision" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
   <si>
     <t>BGL</t>
   </si>
@@ -75,9 +75,6 @@
     <t>0.684833333333332</t>
   </si>
   <si>
-    <t>0.40462972779762935</t>
-  </si>
-  <si>
     <t>LexRank</t>
   </si>
   <si>
@@ -99,171 +96,114 @@
     <t>0.7438333333333359</t>
   </si>
   <si>
-    <t>0.3148161596429509</t>
-  </si>
-  <si>
     <t>0.2155837627313617</t>
   </si>
   <si>
     <t>0.7905000000000019</t>
   </si>
   <si>
-    <t>0.3264545043496756</t>
-  </si>
-  <si>
     <t>0.21907224312351997</t>
   </si>
   <si>
     <t>0.8211666666666679</t>
   </si>
   <si>
-    <t>0.33366129059715777</t>
-  </si>
-  <si>
     <t>0.09508333333333138</t>
   </si>
   <si>
     <t>0.3908333333333337</t>
   </si>
   <si>
-    <t>0.1491880319636403</t>
-  </si>
-  <si>
     <t>0.09299595177398896</t>
   </si>
   <si>
     <t>0.7025</t>
   </si>
   <si>
-    <t>0.16102399307889081</t>
-  </si>
-  <si>
     <t>0.19712045664241204</t>
   </si>
   <si>
     <t>0.6006666666666763</t>
   </si>
   <si>
-    <t>0.2848942019865816</t>
-  </si>
-  <si>
     <t>0.04596415173308798</t>
   </si>
   <si>
     <t>0.6833333333333331</t>
   </si>
   <si>
-    <t>0.07938202673765045</t>
-  </si>
-  <si>
     <t>0.05824941972858006</t>
   </si>
   <si>
     <t>0.4103333333333336</t>
   </si>
   <si>
-    <t>0.09976176568508609</t>
-  </si>
-  <si>
     <t>0.0514016518862646</t>
   </si>
   <si>
     <t>0.3291666666666681</t>
   </si>
   <si>
-    <t>0.08659904609373066</t>
-  </si>
-  <si>
     <t>0.05219414109855386</t>
   </si>
   <si>
     <t>0.36450000000000166</t>
   </si>
   <si>
-    <t>0.08903319977402323</t>
-  </si>
-  <si>
     <t>0.0627193130286832</t>
   </si>
   <si>
     <t>0.44283333333333347</t>
   </si>
   <si>
-    <t>0.10763201519801534</t>
-  </si>
-  <si>
     <t>0.07132659263455057</t>
   </si>
   <si>
     <t>0.5953333333333353</t>
   </si>
   <si>
-    <t>0.12319436951631704</t>
-  </si>
-  <si>
     <t>0.07021548152343943</t>
   </si>
   <si>
     <t>0.5903333333333353</t>
   </si>
   <si>
-    <t>0.1213761877278873</t>
-  </si>
-  <si>
     <t>0.47423353174603455</t>
   </si>
   <si>
     <t>0.7295261904761998</t>
   </si>
   <si>
-    <t>0.5539915551616666</t>
-  </si>
-  <si>
     <t>0.06374999999999943</t>
   </si>
   <si>
     <t>0.47275000000000034</t>
   </si>
   <si>
-    <t>0.1039942269494334</t>
-  </si>
-  <si>
     <t>0.09422222222222017</t>
   </si>
   <si>
     <t>0.31500000000000217</t>
   </si>
   <si>
-    <t>0.14040292817767602</t>
-  </si>
-  <si>
     <t>0.09599999999999817</t>
   </si>
   <si>
     <t>0.355333333333335</t>
   </si>
   <si>
-    <t>0.14870512634116645</t>
-  </si>
-  <si>
     <t>0.3127777777777772</t>
   </si>
   <si>
     <t>0.7263333333333353</t>
   </si>
   <si>
-    <t>0.42751484267022816</t>
-  </si>
-  <si>
     <t>0.107749999999998</t>
   </si>
   <si>
     <t>0.43083333333333257</t>
   </si>
   <si>
-    <t>0.16641025394662343</t>
-  </si>
-  <si>
     <t>BerTopic (meu)</t>
   </si>
   <si>
@@ -273,34 +213,91 @@
     <t>0.7275583333333442</t>
   </si>
   <si>
-    <t>0.5422723727194173</t>
-  </si>
-  <si>
     <t>0.049285714285714245</t>
   </si>
   <si>
     <t>0.2875</t>
   </si>
   <si>
-    <t>0.07431168766750089</t>
-  </si>
-  <si>
     <t>0.09899999999999738</t>
   </si>
   <si>
     <t>0.3331666666666678</t>
   </si>
   <si>
-    <t>0.14761171896844758</t>
-  </si>
-  <si>
     <t>0.09599999999999778</t>
   </si>
   <si>
     <t>0.35433333333333505</t>
   </si>
   <si>
-    <t>0.1490641004223656</t>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.284</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.140</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.121</t>
+  </si>
+  <si>
+    <t>0.123</t>
   </si>
 </sst>
 </file>
@@ -680,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E42FE15-9420-48DC-9346-ADF5AB9E8356}">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,142 +708,142 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -904,140 +901,140 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1049,16 +1046,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7682B7E7-BCD0-4B84-99E7-88C9A1C3E7AB}">
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1083,140 +1081,140 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
